--- a/FurtherReadings/FurtherReadingsList.xlsx
+++ b/FurtherReadings/FurtherReadingsList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless_xtbdjh4\PycharmProjects\UrbanMobilityDigitalTwin\Further Readings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless_xtbdjh4\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C76187-08D6-4D30-8DCC-4770EA0EB71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5E1844-E71A-4A0D-A64C-AF998AD55A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="407" xr2:uid="{48024F72-A6F0-4891-B251-FCEC19815F28}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LiteratureAnalysis" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">LiteratureAnalysis!$A$1:$P$1048547</definedName>
+    <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">LiteratureAnalysis!$A$1:$P$1048550</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="188">
   <si>
     <t>Authors</t>
   </si>
@@ -572,13 +572,67 @@
   </si>
   <si>
     <t>Source Title</t>
+  </si>
+  <si>
+    <t>On the Use of Multi-agent Reinforcement Learning in Cyber-physical and Internet of Thing Systems</t>
+  </si>
+  <si>
+    <t>H. Yarahmadi, M. E. Shiri, M. Challenger, H. Navidi and A. Sharifi</t>
+  </si>
+  <si>
+    <t>Mediterranean Conference on Embedded Computing (MECO)</t>
+  </si>
+  <si>
+    <t>10.1109/MECO58584.2023.10154952</t>
+  </si>
+  <si>
+    <t>System performance;Fingers;Reinforcement learning;Logic gates;Temperature control;Internet of Things;Task analysis;Cyber Physical System;Internet of Things;Multi agent Systems;Multi-Agent Reinforcement Learning;Multi-Agent Credit Assignment Problem</t>
+  </si>
+  <si>
+    <t>In this paper, we provide a review of cyber-physical systems (CPSs) and explore the applications of Multi-Agent Systems (MAS), Multi-Agent Reinforcement Learning (MARL), and Multi-Agent Credit Assignment Problem (MCA) in CPSs. Our primary focus is on mapping specific domains, including job scheduling, energy management, and smart transport systems, to MAS and applying MARL and MCA techniques to solve the problems. To evaluate the effectiveness of our proposed method, we applied it to the job scheduling problem, using two parameters, CPU and bandwidth, and tested its performance for four different tasks: Face Detection and Window Blind Control (FDWC), Finger Touch and Gate Control (FTGC), Weather Check and Thermostat Control (WCTC), and Temperature Check and Start Fan (TCSF). The results indicate that prioritizing tasks significantly improves the performance of the proposed method. We conclude that MAS, MARL, and MCA are powerful tools for solving problems in CPSs and IoT. Mapping these problems to MAS can help overcome the challenges associated with CPSs and IoT, and improve system performance.</t>
+  </si>
+  <si>
+    <t>Web of Digital Twins</t>
+  </si>
+  <si>
+    <t>Ricci, Alessandro and Croatti, Angelo and Mariani, Stefano and Montagna, Sara and Picone, Marco</t>
+  </si>
+  <si>
+    <t>ACM Transactions on Internet Technology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/3507909</t>
+  </si>
+  <si>
+    <t>In recent years, digital twins have been pervading different application domains—from manufacturing to healthcare—as an approach for virtualising different kinds of physical entities (things, products, machines). The dominant view developed in the literature so far is about the virtualisation of individual physical assets in a closed-system perspective. In this article, we introduce and explore a broader perspective that we call Web of Digital Twins (WoDT), in which the digital twin paradigm is exploited for the pervasive softwarisation of possibly large-scale interrelated physical realities. A WoDT can be conceived as an open, distributed and dynamic ecosystem of connected digital twins, functioning as an interoperable service-oriented layer for applications running on top, especially smart applications and multiagent systems. The article introduces an abstract model and architecture aimed to capture key aspects of the idea not bound to any specific application domains or implementing technologies and discusses their adoption in engineering real-world systems. To this purpose, two concrete case studies are considered, in the context of healthcare and smart mobility. Finally, the article includes a discussion of a selected set of research directions.</t>
+  </si>
+  <si>
+    <t>Digital twins, web, agents, MAS, WoDT</t>
+  </si>
+  <si>
+    <t>WLDT: A general purpose library to build IoT digital twins</t>
+  </si>
+  <si>
+    <t>•	Marco Picone, Marco Mamei, Franco Zambonelli</t>
+  </si>
+  <si>
+    <t>SoftwareX</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.softx.2021.100661</t>
+  </si>
+  <si>
+    <t>Digital twins are virtual software copies of physical objects and systems, and represent a strategic technology enabler to support Internet of Things devices and systems. Existing software frameworks for digital twins mainly operate in the cloud and are based on platform-specific solutions, harming interoperability and adaptability. However, it is getting recognized that Internet of Things and digital twins architectures can take advantage of microservices and platform-independent distributed architectures (also on the edge), promoting higher scalability, adaptability, and interoperability. In this context, we introduce WLDT (White Label Digital Twins), a general-purpose library that allows developers to create digital twins in terms of modular, adaptable, and inter-operable software agents. Among different features, WLDT library supports multiple standard protocols, caching, software processing pipeline and metrics monitoring.</t>
+  </si>
+  <si>
+    <t>Internet of Things; Digital twin; Library; Software agent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +643,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -611,10 +673,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -622,11 +685,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
@@ -757,10 +824,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F57E573C-860C-420F-B23B-8105C08B1038}" name="scopus__43456" displayName="scopus__43456" ref="A1:P1048547" tableType="queryTable" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:P1048547" xr:uid="{DE23240C-B505-4089-8E9D-689A0603B22F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P16">
-    <sortCondition descending="1" ref="C2:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F57E573C-860C-420F-B23B-8105C08B1038}" name="scopus__43456" displayName="scopus__43456" ref="A1:P1048550" tableType="queryTable" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:P1048550" xr:uid="{DE23240C-B505-4089-8E9D-689A0603B22F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P19">
+    <sortCondition descending="1" ref="C2:C19"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{05D1E840-792E-4439-BB1C-E623CB659736}" uniqueName="1" name="Authors" queryTableFieldId="1" dataDxfId="15"/>
@@ -1101,11 +1168,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6028D0D7-8422-41C0-9D28-37E01D5EBEC9}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1713,237 +1780,346 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="145" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>137</v>
+    <row r="13" spans="1:16" ht="174" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="C13" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>47</v>
+        <v>2023</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>8</v>
       </c>
       <c r="J13" s="1">
-        <v>5</v>
-      </c>
-      <c r="K13" s="1">
-        <v>4</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="145" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1">
         <v>2022</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="3">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="1">
+        <v>30</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="145" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J16" s="1">
         <v>21</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K16" s="1">
         <v>13</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="203" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:16" ht="145" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="L17" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="203" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C18" s="1">
         <v>2021</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J18" s="1">
         <v>11</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K18" s="1">
         <v>94</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="19" spans="1:16" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C19" s="1">
         <v>2020</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J19" s="1">
         <v>19</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K19" s="1">
         <v>56</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="20" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C20" s="1">
         <v>2019</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H20" s="1">
         <v>231</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I20" s="1">
         <v>246</v>
       </c>
-      <c r="J17" s="1">
-        <v>15</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="J20" s="1">
+        <v>15</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L17" r:id="rId1" xr:uid="{6FB2D8E1-8831-4178-8086-5246B674FCCD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
